--- a/stocks/gama-target.xlsx
+++ b/stocks/gama-target.xlsx
@@ -12,12 +12,11 @@
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Preço Ação</t>
   </si>
@@ -62,6 +61,12 @@
   </si>
   <si>
     <t>DU</t>
+  </si>
+  <si>
+    <t>RHO</t>
+  </si>
+  <si>
+    <t>VEGA</t>
   </si>
 </sst>
 </file>
@@ -70,7 +75,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="0.000%"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -127,7 +132,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -431,7 +436,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
@@ -444,19 +449,17 @@
     <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -482,33 +485,39 @@
         <v>13</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>41.12</v>
+        <v>40.659999999999997</v>
       </c>
       <c r="B2" s="2">
-        <v>0.62</v>
+        <v>0.42</v>
       </c>
       <c r="C2" s="2">
         <v>0.5</v>
@@ -517,44 +526,50 @@
         <v>800</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F2" s="8">
-        <v>0.53900000000000003</v>
+        <v>0.41532999999999998</v>
       </c>
       <c r="G2" s="8">
-        <v>0.2</v>
+        <v>0.27394000000000002</v>
       </c>
       <c r="H2" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="I2" s="3">
+        <v>6.1870000000000001E-2</v>
+      </c>
+      <c r="I2" s="8">
+        <v>2.2329999999999999E-2</v>
+      </c>
+      <c r="J2" s="8">
+        <v>3.2599999999999999E-3</v>
+      </c>
+      <c r="K2" s="3">
         <f>0.7% * E2</f>
-        <v>3.4999999999999996E-2</v>
-      </c>
-      <c r="J2" s="4">
-        <f>(1 + I2) * A2</f>
-        <v>42.559199999999997</v>
-      </c>
-      <c r="K2" s="4">
-        <f>(J2 - A2) * (F2+G2-H2)</f>
-        <v>0.99160879999999985</v>
+        <v>2.7999999999999997E-2</v>
       </c>
       <c r="L2" s="4">
-        <f>B2+K2</f>
-        <v>1.6116088</v>
-      </c>
-      <c r="M2" s="3">
-        <f>L2/B2-1</f>
-        <v>1.5993690322580645</v>
-      </c>
-      <c r="N2" s="3">
-        <f>L2/C2-1</f>
-        <v>2.2232175999999999</v>
-      </c>
-      <c r="O2" s="2">
-        <f>(L2-C2) * D2</f>
-        <v>889.28703999999993</v>
+        <f>(1 + K2) * A2</f>
+        <v>41.798479999999998</v>
+      </c>
+      <c r="M2" s="4">
+        <f>(L2 - A2) * (F2+G2-H2+I2+J2)</f>
+        <v>0.74341605520000087</v>
+      </c>
+      <c r="N2" s="4">
+        <f>B2+M2</f>
+        <v>1.1634160552000008</v>
+      </c>
+      <c r="O2" s="3">
+        <f>N2/B2-1</f>
+        <v>1.7700382266666685</v>
+      </c>
+      <c r="P2" s="3">
+        <f>N2/C2-1</f>
+        <v>1.3268321104000016</v>
+      </c>
+      <c r="Q2" s="2">
+        <f>(N2-C2) * D2</f>
+        <v>530.7328441600007</v>
       </c>
     </row>
   </sheetData>

--- a/stocks/gama-target.xlsx
+++ b/stocks/gama-target.xlsx
@@ -436,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -570,6 +570,66 @@
       <c r="Q2" s="2">
         <f>(N2-C2) * D2</f>
         <v>530.7328441600007</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>11.39</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="D3" s="5">
+        <v>3000</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3" s="8">
+        <v>0.15190000000000001</v>
+      </c>
+      <c r="G3" s="8">
+        <v>0.45455000000000001</v>
+      </c>
+      <c r="H3" s="8">
+        <v>1.281E-2</v>
+      </c>
+      <c r="I3" s="8">
+        <v>3.7399999999999998E-3</v>
+      </c>
+      <c r="J3" s="8">
+        <v>3.3E-4</v>
+      </c>
+      <c r="K3" s="3">
+        <f>0.7% * E3</f>
+        <v>2.7999999999999997E-2</v>
+      </c>
+      <c r="L3" s="4">
+        <f>(1 + K3) * A3</f>
+        <v>11.708920000000001</v>
+      </c>
+      <c r="M3" s="4">
+        <f>(L3 - A3) * (F3+G3-H3+I3+J3)</f>
+        <v>0.1906216732000002</v>
+      </c>
+      <c r="N3" s="4">
+        <f>B3+M3</f>
+        <v>0.23062167320000021</v>
+      </c>
+      <c r="O3" s="3">
+        <f>N3/B3-1</f>
+        <v>4.7655418300000054</v>
+      </c>
+      <c r="P3" s="3">
+        <f>N3/C3-1</f>
+        <v>0.44138545750000135</v>
+      </c>
+      <c r="Q3" s="2">
+        <f>(N3-C3) * D3</f>
+        <v>211.86501960000061</v>
       </c>
     </row>
   </sheetData>
